--- a/resource/osaka/shop_list.xlsx
+++ b/resource/osaka/shop_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20D5F957-A4CC-234B-A73A-B478CE59D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89510CB-A41F-7240-9830-D1A5696D4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="2580" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="6320" yWindow="2580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1973,11 +1973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1989,10 +1989,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2008,11 +2008,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2028,11 +2028,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2045,11 +2045,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2062,11 +2062,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>245</v>
@@ -2079,11 +2079,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>246</v>
@@ -2096,11 +2096,11 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -2113,11 +2113,11 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -2130,11 +2130,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -2147,11 +2147,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2164,11 +2164,11 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -2181,11 +2181,11 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>247</v>
@@ -2198,11 +2198,11 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -2215,11 +2215,11 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>248</v>
@@ -2232,11 +2232,11 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -2249,11 +2249,11 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -2266,11 +2266,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>249</v>
@@ -2283,11 +2283,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -2300,11 +2300,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
         <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -2317,11 +2317,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
         <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>250</v>
@@ -2334,11 +2334,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>251</v>
@@ -2351,11 +2351,11 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
@@ -2368,11 +2368,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -2385,11 +2385,11 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
         <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -2402,11 +2402,11 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
         <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>252</v>
@@ -2419,11 +2419,11 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -2436,11 +2436,11 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
         <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>253</v>
@@ -2453,11 +2453,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>254</v>
@@ -2470,11 +2470,11 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
         <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>255</v>
@@ -2487,11 +2487,11 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
         <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -2504,11 +2504,11 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>256</v>
@@ -2521,11 +2521,11 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>257</v>
@@ -2538,11 +2538,11 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
         <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>258</v>
@@ -2555,11 +2555,11 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>73</v>
@@ -2572,11 +2572,11 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
         <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -2589,11 +2589,11 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
         <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>259</v>
@@ -2606,11 +2606,11 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
         <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>260</v>
@@ -2623,11 +2623,11 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
         <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>261</v>
@@ -2640,11 +2640,11 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>262</v>
@@ -2657,11 +2657,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="21">
-      <c r="A40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
         <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -2674,11 +2674,11 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
         <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>263</v>
@@ -2691,11 +2691,11 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
         <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>264</v>
@@ -2708,11 +2708,11 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>265</v>
@@ -2725,11 +2725,11 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
         <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>266</v>
@@ -2742,11 +2742,11 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
         <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
       </c>
       <c r="C45" t="s">
         <v>267</v>
@@ -2759,11 +2759,11 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
         <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>268</v>
@@ -2776,11 +2776,11 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
         <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>269</v>
@@ -2793,11 +2793,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
         <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -2810,11 +2810,11 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
         <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>86</v>
@@ -2827,11 +2827,11 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
         <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
@@ -2844,11 +2844,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
         <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>91</v>
@@ -2861,11 +2861,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
@@ -2878,11 +2878,11 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>270</v>
@@ -2895,11 +2895,11 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
         <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>97</v>
@@ -2912,11 +2912,11 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
         <v>88</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>271</v>
@@ -2929,11 +2929,11 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
         <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>101</v>
@@ -2946,11 +2946,11 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
         <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>272</v>
@@ -2963,11 +2963,11 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58">
         <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
       </c>
       <c r="C58" t="s">
         <v>273</v>
@@ -2980,11 +2980,11 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59">
         <v>94</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -2997,11 +2997,11 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60">
         <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
       </c>
       <c r="C60" t="s">
         <v>109</v>
@@ -3014,11 +3014,11 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61">
         <v>96</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
       </c>
       <c r="C61" t="s">
         <v>112</v>
@@ -3031,11 +3031,11 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62">
         <v>97</v>
-      </c>
-      <c r="B62" t="s">
-        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>114</v>
@@ -3048,11 +3048,11 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63">
         <v>98</v>
-      </c>
-      <c r="B63" t="s">
-        <v>106</v>
       </c>
       <c r="C63" t="s">
         <v>117</v>
@@ -3065,11 +3065,11 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64">
         <v>99</v>
-      </c>
-      <c r="B64" t="s">
-        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>119</v>
@@ -3082,11 +3082,11 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65">
         <v>100</v>
-      </c>
-      <c r="B65" t="s">
-        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -3099,11 +3099,11 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66">
         <v>101</v>
-      </c>
-      <c r="B66" t="s">
-        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>122</v>
@@ -3116,11 +3116,11 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67">
         <v>102</v>
-      </c>
-      <c r="B67" t="s">
-        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>124</v>
@@ -3133,11 +3133,11 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68">
         <v>103</v>
-      </c>
-      <c r="B68" t="s">
-        <v>106</v>
       </c>
       <c r="C68" t="s">
         <v>274</v>
@@ -3150,11 +3150,11 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69">
         <v>104</v>
-      </c>
-      <c r="B69" t="s">
-        <v>106</v>
       </c>
       <c r="C69" t="s">
         <v>127</v>
@@ -3167,11 +3167,11 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70">
         <v>105</v>
-      </c>
-      <c r="B70" t="s">
-        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>128</v>
@@ -3184,10 +3184,10 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" t="s">
         <v>106</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
         <v>106</v>
       </c>
       <c r="C71" t="s">
@@ -3201,11 +3201,11 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72">
         <v>107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>106</v>
       </c>
       <c r="C72" t="s">
         <v>131</v>
@@ -3218,11 +3218,11 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73">
         <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>106</v>
       </c>
       <c r="C73" t="s">
         <v>132</v>
@@ -3235,11 +3235,11 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
         <v>109</v>
-      </c>
-      <c r="B74" t="s">
-        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>133</v>
@@ -3252,11 +3252,11 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
         <v>110</v>
-      </c>
-      <c r="B75" t="s">
-        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>135</v>
@@ -3269,11 +3269,11 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76">
         <v>111</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
       </c>
       <c r="C76" t="s">
         <v>136</v>
@@ -3286,11 +3286,11 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77">
         <v>112</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
       </c>
       <c r="C77" t="s">
         <v>138</v>
@@ -3303,11 +3303,11 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78">
         <v>113</v>
-      </c>
-      <c r="B78" t="s">
-        <v>106</v>
       </c>
       <c r="C78" t="s">
         <v>140</v>
@@ -3320,11 +3320,11 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79">
         <v>115</v>
-      </c>
-      <c r="B79" t="s">
-        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>141</v>
@@ -3337,11 +3337,11 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80">
         <v>116</v>
-      </c>
-      <c r="B80" t="s">
-        <v>106</v>
       </c>
       <c r="C80" t="s">
         <v>275</v>
@@ -3354,11 +3354,11 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81">
         <v>117</v>
-      </c>
-      <c r="B81" t="s">
-        <v>106</v>
       </c>
       <c r="C81" t="s">
         <v>276</v>
@@ -3371,11 +3371,11 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82">
         <v>118</v>
-      </c>
-      <c r="B82" t="s">
-        <v>106</v>
       </c>
       <c r="C82" t="s">
         <v>145</v>
@@ -3388,11 +3388,11 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83">
         <v>119</v>
-      </c>
-      <c r="B83" t="s">
-        <v>106</v>
       </c>
       <c r="C83" t="s">
         <v>147</v>
@@ -3405,11 +3405,11 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84">
         <v>120</v>
-      </c>
-      <c r="B84" t="s">
-        <v>106</v>
       </c>
       <c r="C84" t="s">
         <v>277</v>
@@ -3422,11 +3422,11 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85">
         <v>121</v>
-      </c>
-      <c r="B85" t="s">
-        <v>106</v>
       </c>
       <c r="C85" t="s">
         <v>148</v>
@@ -3439,11 +3439,11 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86">
         <v>122</v>
-      </c>
-      <c r="B86" t="s">
-        <v>106</v>
       </c>
       <c r="C86" t="s">
         <v>150</v>
@@ -3456,11 +3456,11 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87">
         <v>123</v>
-      </c>
-      <c r="B87" t="s">
-        <v>106</v>
       </c>
       <c r="C87" t="s">
         <v>278</v>
@@ -3473,11 +3473,11 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88">
         <v>124</v>
-      </c>
-      <c r="B88" t="s">
-        <v>106</v>
       </c>
       <c r="C88" t="s">
         <v>279</v>
@@ -3490,11 +3490,11 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89">
         <v>126</v>
-      </c>
-      <c r="B89" t="s">
-        <v>156</v>
       </c>
       <c r="C89" t="s">
         <v>157</v>
@@ -3507,11 +3507,11 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90">
         <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>156</v>
       </c>
       <c r="C90" t="s">
         <v>159</v>
@@ -3524,11 +3524,11 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91">
         <v>128</v>
-      </c>
-      <c r="B91" t="s">
-        <v>156</v>
       </c>
       <c r="C91" t="s">
         <v>161</v>
@@ -3541,11 +3541,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="21">
-      <c r="A92">
+      <c r="A92" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92">
         <v>129</v>
-      </c>
-      <c r="B92" t="s">
-        <v>156</v>
       </c>
       <c r="C92" t="s">
         <v>164</v>
@@ -3558,11 +3558,11 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93">
         <v>130</v>
-      </c>
-      <c r="B93" t="s">
-        <v>156</v>
       </c>
       <c r="C93" t="s">
         <v>280</v>
@@ -3575,11 +3575,11 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
+      <c r="A94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94">
         <v>131</v>
-      </c>
-      <c r="B94" t="s">
-        <v>156</v>
       </c>
       <c r="C94" t="s">
         <v>167</v>
@@ -3592,11 +3592,11 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95">
         <v>132</v>
-      </c>
-      <c r="B95" t="s">
-        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>169</v>
@@ -3609,11 +3609,11 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96">
         <v>133</v>
-      </c>
-      <c r="B96" t="s">
-        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>172</v>
@@ -3626,11 +3626,11 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97">
         <v>134</v>
-      </c>
-      <c r="B97" t="s">
-        <v>156</v>
       </c>
       <c r="C97" t="s">
         <v>281</v>
@@ -3643,11 +3643,11 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98">
         <v>135</v>
-      </c>
-      <c r="B98" t="s">
-        <v>156</v>
       </c>
       <c r="C98" t="s">
         <v>282</v>
@@ -3660,11 +3660,11 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99">
         <v>136</v>
-      </c>
-      <c r="B99" t="s">
-        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>177</v>
@@ -3677,11 +3677,11 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100">
         <v>137</v>
-      </c>
-      <c r="B100" t="s">
-        <v>156</v>
       </c>
       <c r="C100" t="s">
         <v>283</v>
@@ -3694,11 +3694,11 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101">
         <v>138</v>
-      </c>
-      <c r="B101" t="s">
-        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>180</v>
@@ -3711,11 +3711,11 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102">
         <v>139</v>
-      </c>
-      <c r="B102" t="s">
-        <v>156</v>
       </c>
       <c r="C102" t="s">
         <v>182</v>
@@ -3728,11 +3728,11 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103">
         <v>140</v>
-      </c>
-      <c r="B103" t="s">
-        <v>156</v>
       </c>
       <c r="C103" t="s">
         <v>185</v>
@@ -3745,11 +3745,11 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104">
         <v>141</v>
-      </c>
-      <c r="B104" t="s">
-        <v>156</v>
       </c>
       <c r="C104" t="s">
         <v>187</v>
@@ -3762,11 +3762,11 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
+      <c r="A105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105">
         <v>142</v>
-      </c>
-      <c r="B105" t="s">
-        <v>156</v>
       </c>
       <c r="C105" t="s">
         <v>189</v>
@@ -3779,11 +3779,11 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
+      <c r="A106" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106">
         <v>143</v>
-      </c>
-      <c r="B106" t="s">
-        <v>156</v>
       </c>
       <c r="C106" t="s">
         <v>284</v>
@@ -3796,11 +3796,11 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
+      <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107">
         <v>145</v>
-      </c>
-      <c r="B107" t="s">
-        <v>192</v>
       </c>
       <c r="C107" t="s">
         <v>285</v>
@@ -3813,11 +3813,11 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108">
         <v>146</v>
-      </c>
-      <c r="B108" t="s">
-        <v>192</v>
       </c>
       <c r="C108" t="s">
         <v>195</v>
@@ -3830,11 +3830,11 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109">
         <v>147</v>
-      </c>
-      <c r="B109" t="s">
-        <v>192</v>
       </c>
       <c r="C109" t="s">
         <v>287</v>
@@ -3847,11 +3847,11 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
+      <c r="A110" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110">
         <v>148</v>
-      </c>
-      <c r="B110" t="s">
-        <v>192</v>
       </c>
       <c r="C110" t="s">
         <v>286</v>
@@ -3864,11 +3864,11 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111">
         <v>149</v>
-      </c>
-      <c r="B111" t="s">
-        <v>192</v>
       </c>
       <c r="C111" t="s">
         <v>288</v>
@@ -3881,11 +3881,11 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
+      <c r="A112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112">
         <v>150</v>
-      </c>
-      <c r="B112" t="s">
-        <v>192</v>
       </c>
       <c r="C112" t="s">
         <v>202</v>
@@ -3898,11 +3898,11 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="A113" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113">
         <v>151</v>
-      </c>
-      <c r="B113" t="s">
-        <v>192</v>
       </c>
       <c r="C113" t="s">
         <v>204</v>
@@ -3915,11 +3915,11 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114">
         <v>152</v>
-      </c>
-      <c r="B114" t="s">
-        <v>192</v>
       </c>
       <c r="C114" t="s">
         <v>207</v>
@@ -3932,11 +3932,11 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="A115" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115">
         <v>153</v>
-      </c>
-      <c r="B115" t="s">
-        <v>192</v>
       </c>
       <c r="C115" t="s">
         <v>289</v>
@@ -3949,11 +3949,11 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116">
         <v>154</v>
-      </c>
-      <c r="B116" t="s">
-        <v>192</v>
       </c>
       <c r="C116" t="s">
         <v>290</v>
@@ -3966,11 +3966,11 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117">
+      <c r="A117" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117">
         <v>155</v>
-      </c>
-      <c r="B117" t="s">
-        <v>192</v>
       </c>
       <c r="C117" t="s">
         <v>211</v>
@@ -3983,11 +3983,11 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118">
+      <c r="A118" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118">
         <v>156</v>
-      </c>
-      <c r="B118" t="s">
-        <v>192</v>
       </c>
       <c r="C118" t="s">
         <v>291</v>
@@ -4000,11 +4000,11 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119">
         <v>157</v>
-      </c>
-      <c r="B119" t="s">
-        <v>192</v>
       </c>
       <c r="C119" t="s">
         <v>214</v>
@@ -4017,11 +4017,11 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120">
+      <c r="A120" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120">
         <v>158</v>
-      </c>
-      <c r="B120" t="s">
-        <v>192</v>
       </c>
       <c r="C120" t="s">
         <v>292</v>
@@ -4034,11 +4034,11 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121">
+      <c r="A121" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121">
         <v>159</v>
-      </c>
-      <c r="B121" t="s">
-        <v>192</v>
       </c>
       <c r="C121" t="s">
         <v>217</v>
@@ -4051,11 +4051,11 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122">
         <v>161</v>
-      </c>
-      <c r="B122" t="s">
-        <v>220</v>
       </c>
       <c r="C122" t="s">
         <v>221</v>
@@ -4068,11 +4068,11 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
+      <c r="A123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123">
         <v>162</v>
-      </c>
-      <c r="B123" t="s">
-        <v>220</v>
       </c>
       <c r="C123" t="s">
         <v>293</v>
@@ -4085,11 +4085,11 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124">
+      <c r="A124" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124">
         <v>163</v>
-      </c>
-      <c r="B124" t="s">
-        <v>220</v>
       </c>
       <c r="C124" t="s">
         <v>294</v>
@@ -4102,11 +4102,11 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125">
         <v>164</v>
-      </c>
-      <c r="B125" t="s">
-        <v>220</v>
       </c>
       <c r="C125" t="s">
         <v>295</v>
@@ -4119,11 +4119,11 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126">
         <v>165</v>
-      </c>
-      <c r="B126" t="s">
-        <v>220</v>
       </c>
       <c r="C126" t="s">
         <v>296</v>
@@ -4136,11 +4136,11 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127">
         <v>166</v>
-      </c>
-      <c r="B127" t="s">
-        <v>220</v>
       </c>
       <c r="C127" t="s">
         <v>228</v>
@@ -4153,11 +4153,11 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128">
+      <c r="A128" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128">
         <v>167</v>
-      </c>
-      <c r="B128" t="s">
-        <v>220</v>
       </c>
       <c r="C128" t="s">
         <v>223</v>
@@ -4170,11 +4170,11 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129">
+      <c r="A129" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129">
         <v>168</v>
-      </c>
-      <c r="B129" t="s">
-        <v>220</v>
       </c>
       <c r="C129" t="s">
         <v>232</v>
@@ -4187,11 +4187,11 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130">
+      <c r="A130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130">
         <v>169</v>
-      </c>
-      <c r="B130" t="s">
-        <v>220</v>
       </c>
       <c r="C130" t="s">
         <v>297</v>
@@ -4204,11 +4204,11 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131">
+      <c r="A131" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131">
         <v>170</v>
-      </c>
-      <c r="B131" t="s">
-        <v>220</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
@@ -4221,11 +4221,11 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132">
+      <c r="A132" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132">
         <v>171</v>
-      </c>
-      <c r="B132" t="s">
-        <v>220</v>
       </c>
       <c r="C132" t="s">
         <v>299</v>
@@ -4238,11 +4238,11 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133">
+      <c r="A133" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133">
         <v>172</v>
-      </c>
-      <c r="B133" t="s">
-        <v>220</v>
       </c>
       <c r="C133" t="s">
         <v>300</v>
@@ -4255,11 +4255,11 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
+      <c r="A134" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134">
         <v>175</v>
-      </c>
-      <c r="B134" t="s">
-        <v>220</v>
       </c>
       <c r="C134" t="s">
         <v>301</v>
@@ -4272,11 +4272,11 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135">
         <v>176</v>
-      </c>
-      <c r="B135" t="s">
-        <v>220</v>
       </c>
       <c r="C135" t="s">
         <v>302</v>
@@ -4289,11 +4289,11 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
+      <c r="A136" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136">
         <v>177</v>
-      </c>
-      <c r="B136" t="s">
-        <v>220</v>
       </c>
       <c r="C136" t="s">
         <v>303</v>
@@ -4306,11 +4306,11 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
+      <c r="A137" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137">
         <v>178</v>
-      </c>
-      <c r="B137" t="s">
-        <v>220</v>
       </c>
       <c r="C137" t="s">
         <v>304</v>
@@ -4323,11 +4323,11 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138">
+      <c r="A138" t="s">
+        <v>220</v>
+      </c>
+      <c r="B138">
         <v>179</v>
-      </c>
-      <c r="B138" t="s">
-        <v>220</v>
       </c>
       <c r="C138" t="s">
         <v>305</v>
@@ -4340,11 +4340,11 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139">
+      <c r="A139" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139">
         <v>180</v>
-      </c>
-      <c r="B139" t="s">
-        <v>220</v>
       </c>
       <c r="C139" t="s">
         <v>306</v>
@@ -4357,11 +4357,11 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140">
         <v>181</v>
-      </c>
-      <c r="B140" t="s">
-        <v>220</v>
       </c>
       <c r="C140" t="s">
         <v>307</v>
@@ -4374,11 +4374,11 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141">
         <v>182</v>
-      </c>
-      <c r="B141" t="s">
-        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>241</v>

--- a/resource/osaka/shop_list.xlsx
+++ b/resource/osaka/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89510CB-A41F-7240-9830-D1A5696D4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4E555-2A46-BE45-B912-E786CF23F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="2580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2560" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="313">
   <si>
     <t>ページ</t>
   </si>
@@ -1020,6 +1020,15 @@
   <si>
     <t>不定休</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>復活</t>
   </si>
 </sst>
 </file>
@@ -1974,20 +1983,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2001,13 +2010,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2020,14 +2032,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2041,10 +2053,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2058,10 +2073,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2075,10 +2093,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2092,10 +2113,13 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2109,10 +2133,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2125,11 +2152,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2142,11 +2169,11 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2159,11 +2186,11 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2176,11 +2203,11 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2194,10 +2221,13 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2210,11 +2240,11 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2227,11 +2257,11 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2244,11 +2274,11 @@
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2261,11 +2291,11 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2279,10 +2309,13 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2295,11 +2328,11 @@
       <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2312,11 +2345,11 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2330,10 +2363,13 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2347,10 +2383,13 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2364,10 +2403,13 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2380,11 +2422,11 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2397,11 +2439,11 @@
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2415,10 +2457,13 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2432,10 +2477,13 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2449,10 +2497,13 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2466,10 +2517,13 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2482,11 +2536,11 @@
       <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2500,10 +2554,13 @@
         <v>69</v>
       </c>
       <c r="E30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2516,11 +2573,11 @@
       <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2534,10 +2591,13 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2550,11 +2610,11 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2567,11 +2627,11 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2584,11 +2644,11 @@
       <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2602,10 +2662,13 @@
         <v>72</v>
       </c>
       <c r="E36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2618,11 +2681,11 @@
       <c r="D37" t="s">
         <v>72</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2635,11 +2698,11 @@
       <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2652,11 +2715,11 @@
       <c r="D39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21">
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2669,11 +2732,11 @@
       <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2687,10 +2750,13 @@
         <v>72</v>
       </c>
       <c r="E41" t="s">
+        <v>312</v>
+      </c>
+      <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2703,11 +2769,11 @@
       <c r="D42" t="s">
         <v>81</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2720,11 +2786,11 @@
       <c r="D43" t="s">
         <v>72</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2738,10 +2804,13 @@
         <v>72</v>
       </c>
       <c r="E44" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2754,11 +2823,11 @@
       <c r="D45" t="s">
         <v>82</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2771,11 +2840,11 @@
       <c r="D46" t="s">
         <v>82</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2788,11 +2857,11 @@
       <c r="D47" t="s">
         <v>83</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2805,11 +2874,11 @@
       <c r="D48" t="s">
         <v>85</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2822,11 +2891,11 @@
       <c r="D49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2839,11 +2908,11 @@
       <c r="D50" t="s">
         <v>90</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2857,10 +2926,13 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2874,10 +2946,13 @@
         <v>95</v>
       </c>
       <c r="E52" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2890,11 +2965,11 @@
       <c r="D53" t="s">
         <v>96</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2908,10 +2983,13 @@
         <v>98</v>
       </c>
       <c r="E54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2925,10 +3003,13 @@
         <v>99</v>
       </c>
       <c r="E55" t="s">
+        <v>311</v>
+      </c>
+      <c r="F55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -2942,10 +3023,13 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2959,10 +3043,13 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2976,10 +3063,13 @@
         <v>105</v>
       </c>
       <c r="E58" t="s">
+        <v>311</v>
+      </c>
+      <c r="F58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2993,10 +3083,13 @@
         <v>108</v>
       </c>
       <c r="E59" t="s">
+        <v>311</v>
+      </c>
+      <c r="F59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -3010,10 +3103,13 @@
         <v>110</v>
       </c>
       <c r="E60" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3027,10 +3123,13 @@
         <v>113</v>
       </c>
       <c r="E61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3044,10 +3143,13 @@
         <v>115</v>
       </c>
       <c r="E62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F62" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3061,10 +3163,13 @@
         <v>118</v>
       </c>
       <c r="E63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3078,10 +3183,13 @@
         <v>120</v>
       </c>
       <c r="E64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -3095,10 +3203,13 @@
         <v>110</v>
       </c>
       <c r="E65" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3112,10 +3223,13 @@
         <v>123</v>
       </c>
       <c r="E66" t="s">
+        <v>311</v>
+      </c>
+      <c r="F66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3129,10 +3243,13 @@
         <v>125</v>
       </c>
       <c r="E67" t="s">
+        <v>311</v>
+      </c>
+      <c r="F67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3146,10 +3263,13 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3163,10 +3283,13 @@
         <v>113</v>
       </c>
       <c r="E69" t="s">
+        <v>311</v>
+      </c>
+      <c r="F69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3180,10 +3303,13 @@
         <v>129</v>
       </c>
       <c r="E70" t="s">
+        <v>311</v>
+      </c>
+      <c r="F70" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3196,11 +3322,11 @@
       <c r="D71" t="s">
         <v>126</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3214,10 +3340,13 @@
         <v>108</v>
       </c>
       <c r="E72" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -3231,10 +3360,13 @@
         <v>113</v>
       </c>
       <c r="E73" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -3248,10 +3380,13 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -3265,10 +3400,13 @@
         <v>125</v>
       </c>
       <c r="E75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -3282,10 +3420,13 @@
         <v>137</v>
       </c>
       <c r="E76" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -3299,10 +3440,13 @@
         <v>125</v>
       </c>
       <c r="E77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -3316,10 +3460,13 @@
         <v>108</v>
       </c>
       <c r="E78" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -3333,10 +3480,13 @@
         <v>142</v>
       </c>
       <c r="E79" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -3350,10 +3500,13 @@
         <v>143</v>
       </c>
       <c r="E80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3366,11 +3519,11 @@
       <c r="D81" t="s">
         <v>144</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3384,10 +3537,13 @@
         <v>146</v>
       </c>
       <c r="E82" t="s">
+        <v>311</v>
+      </c>
+      <c r="F82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -3401,10 +3557,13 @@
         <v>144</v>
       </c>
       <c r="E83" t="s">
+        <v>311</v>
+      </c>
+      <c r="F83" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -3417,11 +3576,11 @@
       <c r="D84" t="s">
         <v>144</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3434,11 +3593,11 @@
       <c r="D85" t="s">
         <v>149</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3452,10 +3611,13 @@
         <v>151</v>
       </c>
       <c r="E86" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -3468,11 +3630,11 @@
       <c r="D87" t="s">
         <v>153</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -3486,10 +3648,13 @@
         <v>154</v>
       </c>
       <c r="E88" t="s">
+        <v>311</v>
+      </c>
+      <c r="F88" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -3503,10 +3668,13 @@
         <v>158</v>
       </c>
       <c r="E89" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -3519,11 +3687,11 @@
       <c r="D90" t="s">
         <v>160</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3536,11 +3704,11 @@
       <c r="D91" t="s">
         <v>162</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="21">
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -3553,11 +3721,11 @@
       <c r="D92" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -3571,10 +3739,13 @@
         <v>166</v>
       </c>
       <c r="E93" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -3588,10 +3759,13 @@
         <v>168</v>
       </c>
       <c r="E94" t="s">
+        <v>311</v>
+      </c>
+      <c r="F94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -3605,10 +3779,13 @@
         <v>170</v>
       </c>
       <c r="E95" t="s">
+        <v>311</v>
+      </c>
+      <c r="F95" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -3621,11 +3798,11 @@
       <c r="D96" t="s">
         <v>173</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -3639,10 +3816,13 @@
         <v>174</v>
       </c>
       <c r="E97" t="s">
+        <v>312</v>
+      </c>
+      <c r="F97" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -3655,11 +3835,11 @@
       <c r="D98" t="s">
         <v>175</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -3672,11 +3852,11 @@
       <c r="D99" t="s">
         <v>178</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -3689,11 +3869,11 @@
       <c r="D100" t="s">
         <v>179</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -3707,10 +3887,13 @@
         <v>181</v>
       </c>
       <c r="E101" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -3724,10 +3907,13 @@
         <v>183</v>
       </c>
       <c r="E102" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -3740,11 +3926,11 @@
       <c r="D103" t="s">
         <v>186</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -3757,11 +3943,11 @@
       <c r="D104" t="s">
         <v>188</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -3775,10 +3961,13 @@
         <v>190</v>
       </c>
       <c r="E105" t="s">
+        <v>312</v>
+      </c>
+      <c r="F105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -3791,11 +3980,11 @@
       <c r="D106" t="s">
         <v>191</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -3808,11 +3997,11 @@
       <c r="D107" t="s">
         <v>193</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -3825,11 +4014,11 @@
       <c r="D108" t="s">
         <v>196</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -3843,10 +4032,13 @@
         <v>198</v>
       </c>
       <c r="E109" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -3860,10 +4052,13 @@
         <v>199</v>
       </c>
       <c r="E110" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -3877,10 +4072,13 @@
         <v>201</v>
       </c>
       <c r="E111" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -3893,11 +4091,11 @@
       <c r="D112" t="s">
         <v>203</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -3910,11 +4108,11 @@
       <c r="D113" t="s">
         <v>205</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -3927,11 +4125,11 @@
       <c r="D114" t="s">
         <v>208</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -3945,10 +4143,13 @@
         <v>209</v>
       </c>
       <c r="E115" t="s">
+        <v>311</v>
+      </c>
+      <c r="F115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -3961,11 +4162,11 @@
       <c r="D116" t="s">
         <v>210</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -3978,11 +4179,11 @@
       <c r="D117" t="s">
         <v>212</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -3996,10 +4197,13 @@
         <v>213</v>
       </c>
       <c r="E118" t="s">
+        <v>312</v>
+      </c>
+      <c r="F118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -4012,11 +4216,11 @@
       <c r="D119" t="s">
         <v>215</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -4030,10 +4234,13 @@
         <v>216</v>
       </c>
       <c r="E120" t="s">
+        <v>311</v>
+      </c>
+      <c r="F120" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -4046,11 +4253,11 @@
       <c r="D121" t="s">
         <v>218</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -4063,11 +4270,11 @@
       <c r="D122" t="s">
         <v>222</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -4080,11 +4287,11 @@
       <c r="D123" t="s">
         <v>224</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -4098,10 +4305,13 @@
         <v>225</v>
       </c>
       <c r="E124" t="s">
+        <v>311</v>
+      </c>
+      <c r="F124" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>220</v>
       </c>
@@ -4114,11 +4324,11 @@
       <c r="D125" t="s">
         <v>226</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4131,11 +4341,11 @@
       <c r="D126" t="s">
         <v>227</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>220</v>
       </c>
@@ -4148,11 +4358,11 @@
       <c r="D127" t="s">
         <v>229</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>220</v>
       </c>
@@ -4165,11 +4375,11 @@
       <c r="D128" t="s">
         <v>230</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -4183,10 +4393,13 @@
         <v>233</v>
       </c>
       <c r="E129" t="s">
+        <v>312</v>
+      </c>
+      <c r="F129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -4200,10 +4413,13 @@
         <v>234</v>
       </c>
       <c r="E130" t="s">
+        <v>311</v>
+      </c>
+      <c r="F130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -4216,11 +4432,11 @@
       <c r="D131" t="s">
         <v>235</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -4233,11 +4449,11 @@
       <c r="D132" t="s">
         <v>236</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -4251,10 +4467,13 @@
         <v>237</v>
       </c>
       <c r="E133" t="s">
+        <v>311</v>
+      </c>
+      <c r="F133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -4267,11 +4486,11 @@
       <c r="D134" t="s">
         <v>238</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -4284,11 +4503,11 @@
       <c r="D135" t="s">
         <v>238</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>220</v>
       </c>
@@ -4301,11 +4520,11 @@
       <c r="D136" t="s">
         <v>238</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -4319,10 +4538,13 @@
         <v>238</v>
       </c>
       <c r="E137" t="s">
+        <v>311</v>
+      </c>
+      <c r="F137" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -4335,11 +4557,11 @@
       <c r="D138" t="s">
         <v>238</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -4352,11 +4574,11 @@
       <c r="D139" t="s">
         <v>238</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -4370,10 +4592,13 @@
         <v>240</v>
       </c>
       <c r="E140" t="s">
+        <v>311</v>
+      </c>
+      <c r="F140" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>220</v>
       </c>
@@ -4386,7 +4611,7 @@
       <c r="D141" t="s">
         <v>242</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>47</v>
       </c>
     </row>

--- a/resource/osaka/shop_list.xlsx
+++ b/resource/osaka/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4E555-2A46-BE45-B912-E786CF23F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3B3A0-1CEC-CD43-9AA6-AB478EC17A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2560" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2560" windowWidth="33400" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="318">
   <si>
     <t>ページ</t>
   </si>
@@ -1029,6 +1029,22 @@
   </si>
   <si>
     <t>復活</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1983,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1994,9 +2010,12 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2018,8 +2037,17 @@
       <c r="G1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2038,8 +2066,17 @@
       <c r="G2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2058,8 +2095,17 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2078,8 +2124,17 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2098,8 +2153,17 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2118,8 +2182,17 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2138,8 +2211,17 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2155,8 +2237,17 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2172,8 +2263,17 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2189,8 +2289,17 @@
       <c r="F10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2206,8 +2315,17 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2226,8 +2344,17 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2243,8 +2370,17 @@
       <c r="F13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2260,8 +2396,17 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2277,8 +2422,17 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2294,8 +2448,17 @@
       <c r="F16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2314,8 +2477,17 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2331,8 +2503,17 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2348,8 +2529,17 @@
       <c r="F19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2368,8 +2558,17 @@
       <c r="F20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2388,8 +2587,17 @@
       <c r="F21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2408,8 +2616,17 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2425,8 +2642,17 @@
       <c r="F23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2442,8 +2668,17 @@
       <c r="F24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2462,8 +2697,17 @@
       <c r="F25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2482,8 +2726,17 @@
       <c r="F26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2502,8 +2755,17 @@
       <c r="F27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2522,8 +2784,17 @@
       <c r="F28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2539,8 +2810,17 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2559,8 +2839,17 @@
       <c r="F30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2576,8 +2865,17 @@
       <c r="F31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2596,8 +2894,17 @@
       <c r="F32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2613,8 +2920,17 @@
       <c r="F33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2630,8 +2946,17 @@
       <c r="F34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2647,8 +2972,17 @@
       <c r="F35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2667,8 +3001,17 @@
       <c r="F36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2684,8 +3027,17 @@
       <c r="F37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2701,8 +3053,17 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2718,8 +3079,17 @@
       <c r="F39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="21">
+      <c r="H39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2735,8 +3105,17 @@
       <c r="F40" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2755,8 +3134,17 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2772,8 +3160,17 @@
       <c r="F42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2789,8 +3186,17 @@
       <c r="F43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2809,8 +3215,17 @@
       <c r="F44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2826,8 +3241,17 @@
       <c r="F45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +3267,17 @@
       <c r="F46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2860,8 +3293,17 @@
       <c r="F47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2877,8 +3319,17 @@
       <c r="F48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2894,8 +3345,17 @@
       <c r="F49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="21">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2911,8 +3371,17 @@
       <c r="F50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2931,8 +3400,17 @@
       <c r="F51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2951,8 +3429,17 @@
       <c r="F52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2968,8 +3455,17 @@
       <c r="F53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2988,8 +3484,17 @@
       <c r="F54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3008,8 +3513,17 @@
       <c r="F55" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="21">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -3028,8 +3542,17 @@
       <c r="F56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -3048,8 +3571,17 @@
       <c r="F57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3068,8 +3600,17 @@
       <c r="F58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3088,8 +3629,17 @@
       <c r="F59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -3108,8 +3658,17 @@
       <c r="F60" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3128,8 +3687,17 @@
       <c r="F61" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3148,8 +3716,17 @@
       <c r="F62" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3168,8 +3745,17 @@
       <c r="F63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3188,8 +3774,17 @@
       <c r="F64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -3208,8 +3803,17 @@
       <c r="F65" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3228,8 +3832,17 @@
       <c r="F66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3248,8 +3861,17 @@
       <c r="F67" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3268,8 +3890,17 @@
       <c r="F68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3288,8 +3919,17 @@
       <c r="F69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="21">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3308,8 +3948,17 @@
       <c r="F70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="21">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3325,8 +3974,17 @@
       <c r="F71" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3345,8 +4003,17 @@
       <c r="F72" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="21">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -3365,8 +4032,17 @@
       <c r="F73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="21">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -3385,8 +4061,17 @@
       <c r="F74" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="21">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -3405,8 +4090,17 @@
       <c r="F75" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -3425,8 +4119,17 @@
       <c r="F76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="21">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -3445,8 +4148,17 @@
       <c r="F77" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="21">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -3465,8 +4177,17 @@
       <c r="F78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -3485,8 +4206,17 @@
       <c r="F79" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="21">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -3505,8 +4235,17 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="21">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3522,8 +4261,17 @@
       <c r="F81" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="21">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3542,8 +4290,17 @@
       <c r="F82" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="21">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -3562,8 +4319,17 @@
       <c r="F83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="21">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -3579,8 +4345,17 @@
       <c r="F84" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="21">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -3596,8 +4371,17 @@
       <c r="F85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="21">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3616,8 +4400,17 @@
       <c r="F86" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="21">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -3633,8 +4426,17 @@
       <c r="F87" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="21">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -3653,8 +4455,17 @@
       <c r="F88" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="21">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -3673,8 +4484,17 @@
       <c r="F89" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="21">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -3690,8 +4510,17 @@
       <c r="F90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="21">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3707,8 +4536,17 @@
       <c r="F91" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="21">
+      <c r="H91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="21">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -3724,8 +4562,17 @@
       <c r="F92" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="21">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -3744,8 +4591,17 @@
       <c r="F93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="21">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -3764,8 +4620,17 @@
       <c r="F94" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="21">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -3784,8 +4649,17 @@
       <c r="F95" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="21">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -3801,8 +4675,17 @@
       <c r="F96" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="21">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -3821,8 +4704,17 @@
       <c r="F97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="21">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -3838,8 +4730,17 @@
       <c r="F98" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="21">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -3855,8 +4756,17 @@
       <c r="F99" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="21">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -3872,8 +4782,17 @@
       <c r="F100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="21">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -3892,8 +4811,17 @@
       <c r="F101" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="21">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -3912,8 +4840,17 @@
       <c r="F102" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="H102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="21">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -3929,8 +4866,17 @@
       <c r="F103" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="H103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="21">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -3946,8 +4892,17 @@
       <c r="F104" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="21">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -3966,8 +4921,17 @@
       <c r="F105" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="H105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="21">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -3983,8 +4947,17 @@
       <c r="F106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="H106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="21">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -4000,8 +4973,17 @@
       <c r="F107" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="H107" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="21">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -4017,8 +4999,17 @@
       <c r="F108" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="H108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="21">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4037,8 +5028,17 @@
       <c r="F109" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="H109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="21">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -4057,8 +5057,17 @@
       <c r="F110" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="H110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="21">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -4077,8 +5086,17 @@
       <c r="F111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="H111" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="21">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -4094,8 +5112,17 @@
       <c r="F112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="H112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="21">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -4111,8 +5138,17 @@
       <c r="F113" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="H113" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="21">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -4128,8 +5164,17 @@
       <c r="F114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="H114" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="21">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -4148,8 +5193,17 @@
       <c r="F115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="H115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="21">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -4165,8 +5219,17 @@
       <c r="F116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="H116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="21">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -4182,8 +5245,17 @@
       <c r="F117" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="H117" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="21">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -4202,8 +5274,17 @@
       <c r="F118" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="H118" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="21">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -4219,8 +5300,17 @@
       <c r="F119" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="H119" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="21">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -4239,8 +5329,17 @@
       <c r="F120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="H120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="21">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -4256,8 +5355,17 @@
       <c r="F121" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="H121" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="21">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -4273,8 +5381,17 @@
       <c r="F122" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="H122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="21">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -4290,8 +5407,17 @@
       <c r="F123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="H123" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="21">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -4310,8 +5436,17 @@
       <c r="F124" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="H124" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="21">
       <c r="A125" t="s">
         <v>220</v>
       </c>
@@ -4327,8 +5462,17 @@
       <c r="F125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="H125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="21">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4344,8 +5488,17 @@
       <c r="F126" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="H126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="21">
       <c r="A127" t="s">
         <v>220</v>
       </c>
@@ -4361,8 +5514,17 @@
       <c r="F127" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="H127" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="21">
       <c r="A128" t="s">
         <v>220</v>
       </c>
@@ -4378,8 +5540,17 @@
       <c r="F128" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="H128" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="21">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -4398,8 +5569,17 @@
       <c r="F129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="H129" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="21">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -4418,8 +5598,17 @@
       <c r="F130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="H130" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="21">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -4435,8 +5624,17 @@
       <c r="F131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="H131" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="21">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -4452,8 +5650,17 @@
       <c r="F132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="H132" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="21">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -4472,8 +5679,17 @@
       <c r="F133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="H133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="21">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -4489,8 +5705,17 @@
       <c r="F134" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="H134" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="21">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -4506,8 +5731,17 @@
       <c r="F135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="H135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="21">
       <c r="A136" t="s">
         <v>220</v>
       </c>
@@ -4523,8 +5757,17 @@
       <c r="F136" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="H136" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="21">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -4543,8 +5786,17 @@
       <c r="F137" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="H137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="21">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -4560,8 +5812,17 @@
       <c r="F138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="H138" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="21">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -4577,8 +5838,17 @@
       <c r="F139" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="H139" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="21">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -4597,8 +5867,17 @@
       <c r="F140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="H140" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="21">
       <c r="A141" t="s">
         <v>220</v>
       </c>
@@ -4613,6 +5892,15 @@
       </c>
       <c r="F141" t="s">
         <v>47</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/resource/osaka/shop_list.xlsx
+++ b/resource/osaka/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3B3A0-1CEC-CD43-9AA6-AB478EC17A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB1A57-1F30-6347-8671-D8737CE47D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2560" windowWidth="33400" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2560" windowWidth="35400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="319">
   <si>
     <t>ページ</t>
   </si>
@@ -1044,6 +1044,13 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1999,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2013,9 +2020,10 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2046,8 +2054,11 @@
       <c r="J1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="21">
+      <c r="K1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2075,8 +2086,11 @@
       <c r="J2" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="21">
+      <c r="K2" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2104,8 +2118,11 @@
       <c r="J3" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21">
+      <c r="K3" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2133,8 +2150,11 @@
       <c r="J4" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="21">
+      <c r="K4" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2162,8 +2182,11 @@
       <c r="J5" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="21">
+      <c r="K5" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2214,11 @@
       <c r="J6" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="21">
+      <c r="K6" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2220,8 +2246,11 @@
       <c r="J7" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="21">
+      <c r="K7" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2275,11 @@
       <c r="J8" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="21">
+      <c r="K8" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2272,8 +2304,11 @@
       <c r="J9" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="21">
+      <c r="K9" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2298,8 +2333,11 @@
       <c r="J10" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="21">
+      <c r="K10" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2324,8 +2362,11 @@
       <c r="J11" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="21">
+      <c r="K11" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2353,8 +2394,11 @@
       <c r="J12" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="21">
+      <c r="K12" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2379,8 +2423,11 @@
       <c r="J13" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="21">
+      <c r="K13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2405,8 +2452,11 @@
       <c r="J14" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="21">
+      <c r="K14" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2431,8 +2481,11 @@
       <c r="J15" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="21">
+      <c r="K15" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2457,8 +2510,11 @@
       <c r="J16" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="21">
+      <c r="K16" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2486,8 +2542,11 @@
       <c r="J17" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="21">
+      <c r="K17" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2512,8 +2571,11 @@
       <c r="J18" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="21">
+      <c r="K18" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2538,8 +2600,11 @@
       <c r="J19" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="21">
+      <c r="K19" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2567,8 +2632,11 @@
       <c r="J20" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="21">
+      <c r="K20" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2596,8 +2664,11 @@
       <c r="J21" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="21">
+      <c r="K21" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2625,8 +2696,11 @@
       <c r="J22" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="21">
+      <c r="K22" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2651,8 +2725,11 @@
       <c r="J23" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="21">
+      <c r="K23" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="21">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +2754,11 @@
       <c r="J24" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21">
+      <c r="K24" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2706,8 +2786,11 @@
       <c r="J25" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="21">
+      <c r="K25" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2735,8 +2818,11 @@
       <c r="J26" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="21">
+      <c r="K26" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2764,8 +2850,11 @@
       <c r="J27" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="21">
+      <c r="K27" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2793,8 +2882,11 @@
       <c r="J28" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="21">
+      <c r="K28" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="21">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2819,8 +2911,11 @@
       <c r="J29" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="21">
+      <c r="K29" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2848,8 +2943,11 @@
       <c r="J30" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="21">
+      <c r="K30" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2874,8 +2972,11 @@
       <c r="J31" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="21">
+      <c r="K31" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2903,8 +3004,11 @@
       <c r="J32" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="21">
+      <c r="K32" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2929,8 +3033,11 @@
       <c r="J33" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="21">
+      <c r="K33" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2955,8 +3062,11 @@
       <c r="J34" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="21">
+      <c r="K34" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3091,11 @@
       <c r="J35" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="21">
+      <c r="K35" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="21">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3010,8 +3123,11 @@
       <c r="J36" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="21">
+      <c r="K36" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3036,8 +3152,11 @@
       <c r="J37" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="21">
+      <c r="K37" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="21">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3062,8 +3181,11 @@
       <c r="J38" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="21">
+      <c r="K38" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="21">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3088,8 +3210,11 @@
       <c r="J39" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="21">
+      <c r="K39" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="21">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3114,8 +3239,11 @@
       <c r="J40" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="21">
+      <c r="K40" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="21">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3143,8 +3271,11 @@
       <c r="J41" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="21">
+      <c r="K41" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="21">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3169,8 +3300,11 @@
       <c r="J42" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="21">
+      <c r="K42" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="21">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3195,8 +3329,11 @@
       <c r="J43" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="21">
+      <c r="K43" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="21">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3224,8 +3361,11 @@
       <c r="J44" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="21">
+      <c r="K44" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="21">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3250,8 +3390,11 @@
       <c r="J45" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="21">
+      <c r="K45" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="J46" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="21">
+      <c r="K46" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3302,8 +3448,11 @@
       <c r="J47" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="21">
+      <c r="K47" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="21">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3328,8 +3477,11 @@
       <c r="J48" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="21">
+      <c r="K48" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="21">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3354,8 +3506,11 @@
       <c r="J49" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="21">
+      <c r="K49" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="21">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -3380,8 +3535,11 @@
       <c r="J50" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="21">
+      <c r="K50" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="21">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3409,8 +3567,11 @@
       <c r="J51" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="21">
+      <c r="K51" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="21">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3438,8 +3599,11 @@
       <c r="J52" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="21">
+      <c r="K52" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="21">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3464,8 +3628,11 @@
       <c r="J53" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="21">
+      <c r="K53" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="21">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3493,8 +3660,11 @@
       <c r="J54" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="21">
+      <c r="K54" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="21">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3522,8 +3692,11 @@
       <c r="J55" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="21">
+      <c r="K55" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="21">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -3551,8 +3724,11 @@
       <c r="J56" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="21">
+      <c r="K56" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="21">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -3580,8 +3756,11 @@
       <c r="J57" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="21">
+      <c r="K57" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="21">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3609,8 +3788,11 @@
       <c r="J58" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="21">
+      <c r="K58" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="21">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3638,8 +3820,11 @@
       <c r="J59" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="21">
+      <c r="K59" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="21">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -3667,8 +3852,11 @@
       <c r="J60" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="21">
+      <c r="K60" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3696,8 +3884,11 @@
       <c r="J61" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="21">
+      <c r="K61" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="21">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3725,8 +3916,11 @@
       <c r="J62" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="21">
+      <c r="K62" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="21">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3754,8 +3948,11 @@
       <c r="J63" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="21">
+      <c r="K63" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="21">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3783,8 +3980,11 @@
       <c r="J64" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="21">
+      <c r="K64" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="21">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -3812,8 +4012,11 @@
       <c r="J65" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="21">
+      <c r="K65" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="21">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3841,8 +4044,11 @@
       <c r="J66" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="21">
+      <c r="K66" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="21">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3870,8 +4076,11 @@
       <c r="J67" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="21">
+      <c r="K67" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="21">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3899,8 +4108,11 @@
       <c r="J68" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="21">
+      <c r="K68" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="21">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3928,8 +4140,11 @@
       <c r="J69" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="21">
+      <c r="K69" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="21">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3957,8 +4172,11 @@
       <c r="J70" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="21">
+      <c r="K70" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="21">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3983,8 +4201,11 @@
       <c r="J71" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="21">
+      <c r="K71" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="21">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -4012,8 +4233,11 @@
       <c r="J72" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="21">
+      <c r="K72" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="21">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="J73" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="21">
+      <c r="K73" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="21">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -4070,8 +4297,11 @@
       <c r="J74" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="21">
+      <c r="K74" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="21">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -4099,8 +4329,11 @@
       <c r="J75" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="21">
+      <c r="K75" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="21">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4128,8 +4361,11 @@
       <c r="J76" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="21">
+      <c r="K76" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="21">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -4157,8 +4393,11 @@
       <c r="J77" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="21">
+      <c r="K77" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="21">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -4186,8 +4425,11 @@
       <c r="J78" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="21">
+      <c r="K78" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="21">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -4215,8 +4457,11 @@
       <c r="J79" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="21">
+      <c r="K79" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="21">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -4244,8 +4489,11 @@
       <c r="J80" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="21">
+      <c r="K80" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="21">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -4270,8 +4518,11 @@
       <c r="J81" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="21">
+      <c r="K81" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="21">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -4299,8 +4550,11 @@
       <c r="J82" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="21">
+      <c r="K82" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="21">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -4328,8 +4582,11 @@
       <c r="J83" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="21">
+      <c r="K83" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="21">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -4354,8 +4611,11 @@
       <c r="J84" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="21">
+      <c r="K84" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="21">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -4380,8 +4640,11 @@
       <c r="J85" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="21">
+      <c r="K85" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="21">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -4409,8 +4672,11 @@
       <c r="J86" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="21">
+      <c r="K86" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="21">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -4435,8 +4701,11 @@
       <c r="J87" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="21">
+      <c r="K87" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="21">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -4464,8 +4733,11 @@
       <c r="J88" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="21">
+      <c r="K88" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="21">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -4493,8 +4765,11 @@
       <c r="J89" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="21">
+      <c r="K89" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="21">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -4519,8 +4794,11 @@
       <c r="J90" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="21">
+      <c r="K90" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="21">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -4545,8 +4823,11 @@
       <c r="J91" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="21">
+      <c r="K91" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="21">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -4571,8 +4852,11 @@
       <c r="J92" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="21">
+      <c r="K92" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="21">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -4600,8 +4884,11 @@
       <c r="J93" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="21">
+      <c r="K93" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="21">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -4629,8 +4916,11 @@
       <c r="J94" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="21">
+      <c r="K94" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="21">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -4658,8 +4948,11 @@
       <c r="J95" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="21">
+      <c r="K95" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="21">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -4684,8 +4977,11 @@
       <c r="J96" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="21">
+      <c r="K96" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="21">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -4713,8 +5009,11 @@
       <c r="J97" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="21">
+      <c r="K97" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="21">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -4739,8 +5038,11 @@
       <c r="J98" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="21">
+      <c r="K98" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="21">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -4765,8 +5067,11 @@
       <c r="J99" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="21">
+      <c r="K99" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="21">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -4791,8 +5096,11 @@
       <c r="J100" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="21">
+      <c r="K100" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="21">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -4820,8 +5128,11 @@
       <c r="J101" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="21">
+      <c r="K101" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="21">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -4849,8 +5160,11 @@
       <c r="J102" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="21">
+      <c r="K102" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="21">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -4875,8 +5189,11 @@
       <c r="J103" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="21">
+      <c r="K103" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="21">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -4901,8 +5218,11 @@
       <c r="J104" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="21">
+      <c r="K104" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="21">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -4930,8 +5250,11 @@
       <c r="J105" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="21">
+      <c r="K105" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="21">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -4956,8 +5279,11 @@
       <c r="J106" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="21">
+      <c r="K106" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="21">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -4982,8 +5308,11 @@
       <c r="J107" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="21">
+      <c r="K107" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="21">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -5008,8 +5337,11 @@
       <c r="J108" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="21">
+      <c r="K108" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="21">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -5037,8 +5369,11 @@
       <c r="J109" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="21">
+      <c r="K109" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="21">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5066,8 +5401,11 @@
       <c r="J110" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="21">
+      <c r="K110" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="21">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -5095,8 +5433,11 @@
       <c r="J111" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="21">
+      <c r="K111" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="21">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -5121,8 +5462,11 @@
       <c r="J112" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="21">
+      <c r="K112" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="21">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -5147,8 +5491,11 @@
       <c r="J113" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="21">
+      <c r="K113" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="21">
       <c r="A114" t="s">
         <v>192</v>
       </c>
@@ -5173,8 +5520,11 @@
       <c r="J114" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="21">
+      <c r="K114" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="21">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -5202,8 +5552,11 @@
       <c r="J115" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="21">
+      <c r="K115" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="21">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -5228,8 +5581,11 @@
       <c r="J116" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="21">
+      <c r="K116" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="21">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -5254,8 +5610,11 @@
       <c r="J117" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="21">
+      <c r="K117" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="21">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -5283,8 +5642,11 @@
       <c r="J118" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="21">
+      <c r="K118" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="21">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -5309,8 +5671,11 @@
       <c r="J119" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="21">
+      <c r="K119" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="21">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -5338,8 +5703,11 @@
       <c r="J120" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="21">
+      <c r="K120" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="21">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -5364,8 +5732,11 @@
       <c r="J121" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="21">
+      <c r="K121" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="21">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -5390,8 +5761,11 @@
       <c r="J122" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="21">
+      <c r="K122" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="21">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -5416,8 +5790,11 @@
       <c r="J123" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="21">
+      <c r="K123" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="21">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -5445,8 +5822,11 @@
       <c r="J124" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="21">
+      <c r="K124" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="21">
       <c r="A125" t="s">
         <v>220</v>
       </c>
@@ -5471,8 +5851,11 @@
       <c r="J125" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="21">
+      <c r="K125" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="21">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -5497,8 +5880,11 @@
       <c r="J126" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="21">
+      <c r="K126" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="21">
       <c r="A127" t="s">
         <v>220</v>
       </c>
@@ -5523,8 +5909,11 @@
       <c r="J127" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="21">
+      <c r="K127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="21">
       <c r="A128" t="s">
         <v>220</v>
       </c>
@@ -5549,8 +5938,11 @@
       <c r="J128" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="21">
+      <c r="K128" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="21">
       <c r="A129" t="s">
         <v>220</v>
       </c>
@@ -5578,8 +5970,11 @@
       <c r="J129" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="21">
+      <c r="K129" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="21">
       <c r="A130" t="s">
         <v>220</v>
       </c>
@@ -5607,8 +6002,11 @@
       <c r="J130" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="21">
+      <c r="K130" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="21">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -5633,8 +6031,11 @@
       <c r="J131" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="21">
+      <c r="K131" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="21">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -5659,8 +6060,11 @@
       <c r="J132" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="21">
+      <c r="K132" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="21">
       <c r="A133" t="s">
         <v>220</v>
       </c>
@@ -5688,8 +6092,11 @@
       <c r="J133" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="21">
+      <c r="K133" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="21">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -5714,8 +6121,11 @@
       <c r="J134" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="21">
+      <c r="K134" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="21">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -5740,8 +6150,11 @@
       <c r="J135" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="21">
+      <c r="K135" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="21">
       <c r="A136" t="s">
         <v>220</v>
       </c>
@@ -5766,8 +6179,11 @@
       <c r="J136" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="21">
+      <c r="K136" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="21">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -5795,8 +6211,11 @@
       <c r="J137" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="21">
+      <c r="K137" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="21">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -5821,8 +6240,11 @@
       <c r="J138" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="21">
+      <c r="K138" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="21">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -5847,8 +6269,11 @@
       <c r="J139" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="21">
+      <c r="K139" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="21">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -5876,8 +6301,11 @@
       <c r="J140" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="21">
+      <c r="K140" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="21">
       <c r="A141" t="s">
         <v>220</v>
       </c>
@@ -5900,6 +6328,9 @@
         <v>316</v>
       </c>
       <c r="J141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K141" s="1" t="s">
         <v>316</v>
       </c>
     </row>
